--- a/analysis/metadata/P02_2/P02_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P02_2/P02_2_minimal_metadata.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>07/11/2018 00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>07/11/2018 00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>07/11/2018 00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>07/11/2018 00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>07/11/2018 00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>07/11/2018 00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>07/11/2018 00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>07/11/2018 00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>07/11/2018 00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>07/11/2018 00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>13/11/2018 00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>13/11/2018 00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>13/11/2018 00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>13/11/2018 00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>13/11/2018 00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>13/11/2018 00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>13/11/2018 00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>13/11/2018 00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>13/11/2018 00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>13/11/2018 00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>04/12/2018 00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>04/12/2018 00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2168,6 +2168,11 @@
       <c r="L25" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2018-12-04</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2215,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>04/12/2018 00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2288,7 +2293,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>04/12/2018 00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2361,7 +2366,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>04/12/2018 00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2434,7 +2439,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>04/12/2018 00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2507,7 +2512,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>04/12/2018 00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2580,7 +2585,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>04/12/2018 00:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2653,7 +2658,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>04/12/2018 00:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">

--- a/analysis/metadata/P02_2/P02_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P02_2/P02_2_minimal_metadata.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>07/11/2018 00:00</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>07/11/2018 00:00</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>07/11/2018 00:00</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>07/11/2018 00:00</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>07/11/2018 00:00</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>07/11/2018 00:00</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>07/11/2018 00:00</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>07/11/2018 00:00</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>07/11/2018 00:00</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>07/11/2018 00:00</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>13/11/2018 00:00</t>
+          <t>2018-11-13</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>13/11/2018 00:00</t>
+          <t>2018-11-13</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>13/11/2018 00:00</t>
+          <t>2018-11-13</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>13/11/2018 00:00</t>
+          <t>2018-11-13</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>13/11/2018 00:00</t>
+          <t>2018-11-13</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>13/11/2018 00:00</t>
+          <t>2018-11-13</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>13/11/2018 00:00</t>
+          <t>2018-11-13</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>13/11/2018 00:00</t>
+          <t>2018-11-13</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>13/11/2018 00:00</t>
+          <t>2018-11-13</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>13/11/2018 00:00</t>
+          <t>2018-11-13</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>04/12/2018 00:00</t>
+          <t>2018-12-04</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>04/12/2018 00:00</t>
+          <t>2018-12-04</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>04/12/2018 00:00</t>
+          <t>2018-12-04</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>04/12/2018 00:00</t>
+          <t>2018-12-04</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>04/12/2018 00:00</t>
+          <t>2018-12-04</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>04/12/2018 00:00</t>
+          <t>2018-12-04</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>04/12/2018 00:00</t>
+          <t>2018-12-04</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>04/12/2018 00:00</t>
+          <t>2018-12-04</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2658,7 +2658,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>04/12/2018 00:00</t>
+          <t>2018-12-04</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">

--- a/analysis/metadata/P02_2/P02_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P02_2/P02_2_minimal_metadata.xlsx
@@ -466,6 +466,11 @@
           <t>6141</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>F23.0</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>2018-11-07</t>
@@ -539,6 +544,11 @@
           <t>6141</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>F23.0</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>2018-11-07</t>
@@ -612,6 +622,11 @@
           <t>6141</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>F21.0</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>2018-11-07</t>
@@ -685,6 +700,11 @@
           <t>6141</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>F21.0</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>2018-11-07</t>
@@ -758,6 +778,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>F26.0</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>2018-11-07</t>
@@ -831,6 +856,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>F26.0</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>2018-11-07</t>
@@ -904,6 +934,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>F28.0</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>2018-11-07</t>
@@ -977,6 +1012,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>F28.0</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>2018-11-07</t>
@@ -1050,6 +1090,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>F27.0</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>2018-11-07</t>
@@ -1123,6 +1168,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>F27.0</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
           <t>2018-11-07</t>
@@ -1196,6 +1246,11 @@
           <t>6141</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>F3.0</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>2018-11-13</t>
@@ -1269,6 +1324,11 @@
           <t>6141</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>F3.0</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>2018-11-13</t>
@@ -1342,6 +1402,11 @@
           <t>6141</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>F9.0</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>2018-11-13</t>
@@ -1415,6 +1480,11 @@
           <t>6141</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>F9.0</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>2018-11-13</t>
@@ -1488,6 +1558,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>F8.0</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
           <t>2018-11-13</t>
@@ -1561,6 +1636,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>F8.0</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
           <t>2018-11-13</t>
@@ -1634,6 +1714,11 @@
           <t>6612</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>F7.0</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
           <t>2018-11-13</t>
@@ -1707,6 +1792,11 @@
           <t>6612</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>F7.0</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
           <t>2018-11-13</t>
@@ -1780,6 +1870,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>F31.0</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
           <t>2018-11-13</t>
@@ -1853,6 +1948,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>F31.0</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
           <t>2018-11-13</t>
@@ -1926,6 +2026,11 @@
           <t>6141</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>F6.1</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
           <t>2018-12-04</t>
@@ -1999,6 +2104,11 @@
           <t>6141</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>F6.1</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
           <t>2018-12-04</t>
@@ -2072,6 +2182,11 @@
           <t>6141</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>F8.1</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
           <t>2020-05-11</t>
@@ -2145,6 +2260,11 @@
           <t>6141</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>F8.1</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
           <t>2020-05-11</t>
@@ -2218,6 +2338,11 @@
           <t>6141</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>F8.1</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
           <t>2018-12-04</t>
@@ -2291,6 +2416,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>F10.0</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
           <t>2018-12-04</t>
@@ -2364,6 +2494,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>F10.0</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
           <t>2018-12-04</t>
@@ -2437,6 +2572,11 @@
           <t>6612</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>F1.0</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
           <t>2018-12-04</t>
@@ -2510,6 +2650,11 @@
           <t>6612</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>F1.0</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
           <t>2018-12-04</t>
@@ -2583,6 +2728,11 @@
           <t>6141</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>F61.0</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
           <t>2018-12-04</t>
@@ -2654,6 +2804,11 @@
       <c r="F32" t="inlineStr">
         <is>
           <t>6141</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>F61.0</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">

--- a/analysis/metadata/P02_2/P02_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P02_2/P02_2_minimal_metadata.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2236,7 +2236,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MFD00398B</t>
+          <t>MFD00399</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2267,12 +2267,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2018-12-04</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>vaarbyg_malt. field edge</t>
+          <t>vaarbyg_malt, field centre</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2314,7 +2314,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MFD00399</t>
+          <t>MFD00400</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="C26">
-        <v>55.4209</v>
+        <v>55.4169</v>
       </c>
       <c r="D26">
-        <v>11.6477</v>
+        <v>11.6468</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2335,12 +2335,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>6141</t>
+          <t>6713</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>F8.1</t>
+          <t>F10.0</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>vaarbyg_malt, field centre</t>
+          <t>vinterraps, field edge</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2380,19 +2380,19 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Poales, Cereal</t>
+          <t>Malvids</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Barley, Spring</t>
+          <t>Brassicales, Rapeseed, Winter</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MFD00400</t>
+          <t>MFD00401</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>vinterraps, field edge</t>
+          <t>vinterraps, field centre</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2470,7 +2470,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MFD00401</t>
+          <t>MFD00402</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2479,10 +2479,10 @@
         </is>
       </c>
       <c r="C28">
-        <v>55.4169</v>
+        <v>55.4095</v>
       </c>
       <c r="D28">
-        <v>11.6468</v>
+        <v>11.6549</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2491,12 +2491,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>6713</t>
+          <t>6612</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>F10.0</t>
+          <t>F1.0</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>vinterraps, field centre</t>
+          <t>hesteboenner, field edge</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2536,19 +2536,19 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Malvids</t>
+          <t>Fabids</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Brassicales, Rapeseed, Winter</t>
+          <t>Fabales, Faba bean</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MFD00402</t>
+          <t>MFD00403</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>hesteboenner, field edge</t>
+          <t>hesteboenner, field centre</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2626,7 +2626,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MFD00403</t>
+          <t>MFD00404</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2635,10 +2635,10 @@
         </is>
       </c>
       <c r="C30">
-        <v>55.4095</v>
+        <v>55.403</v>
       </c>
       <c r="D30">
-        <v>11.6549</v>
+        <v>11.6655</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2647,12 +2647,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>6612</t>
+          <t>6141</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>F1.0</t>
+          <t>F61.0</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>hesteboenner, field centre</t>
+          <t>vaarbyg_malt, field edge</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2692,19 +2692,19 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Fabids</t>
+          <t>Poales, Cereal</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Fabales, Faba bean</t>
+          <t>Barley, Spring</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MFD00404</t>
+          <t>MFD00405</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2740,7 +2740,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>vaarbyg_malt, field edge</t>
+          <t>vaarbyg_malt, field centre</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2774,84 +2774,6 @@
         </is>
       </c>
       <c r="P31" t="inlineStr">
-        <is>
-          <t>Barley, Spring</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>MFD00405</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="C32">
-        <v>55.403</v>
-      </c>
-      <c r="D32">
-        <v>11.6655</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>agriculture</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>6141</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>F61.0</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2018-12-04</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>vaarbyg_malt, field centre</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>P02_2</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>2018-12-04</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Fields</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Poales, Cereal</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
         <is>
           <t>Barley, Spring</t>
         </is>
